--- a/RingSTM_SW/Analysis.xlsx
+++ b/RingSTM_SW/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjgrundey/Documents/Senior/Transactional_Programming/MiniProj1/RingSTM_SW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A00912-1845-9E44-AB85-B02C5ED236DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E7020-68EE-9244-88D2-FB657AF5EFBF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16840" yWindow="0" windowWidth="16760" windowHeight="21000" xr2:uid="{D3A77843-3E3C-314D-80DD-B3B163D313CE}"/>
   </bookViews>
@@ -78,8 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2648,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D6E46A-8185-C147-BEBD-10B2D0DBAD05}">
-  <dimension ref="C2:G12"/>
+  <dimension ref="C2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2659,12 +2662,12 @@
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D3">
         <v>1024</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>210322</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -2729,12 +2732,12 @@
         <v>268857.25</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>1024</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>750512</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>1296741</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -2798,6 +2801,7 @@
       <c r="G12">
         <v>2055363</v>
       </c>
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
